--- a/Test/TestExcelFiles/NoHeadersForAssertionTable/NoHeadersForAssertionTable.xlsx
+++ b/Test/TestExcelFiles/NoHeadersForAssertionTable/NoHeadersForAssertionTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cburge\Documents\repos\customer-tests-excel\Test\TestExcelFiles\NoHeadersForAssertionTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B887FB69-CF2B-4DFD-A8E0-21DA0051246A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C01AD99-AD2D-4167-9F32-C4A6B662E9EF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{93574C7F-CD34-4A26-A791-2CAAC18DAAC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{93574C7F-CD34-4A26-A791-2CAAC18DAAC8}"/>
   </bookViews>
   <sheets>
     <sheet name="NoHeadersForAssertionTable" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
     <t>When</t>
   </si>
   <si>
-    <t>Assert</t>
-  </si>
-  <si>
     <t xml:space="preserve">Result </t>
   </si>
   <si>
@@ -61,6 +58,9 @@
   </si>
   <si>
     <t>table of</t>
+  </si>
+  <si>
+    <t>Then</t>
   </si>
 </sst>
 </file>
@@ -727,9 +727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1389079D-C9FD-4AFA-AFB3-2F9AFFAD165C}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -749,10 +747,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -760,7 +758,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -768,23 +766,23 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -793,56 +791,9 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD4 A14:XFD1048576 E5:XFD13">
-    <cfRule type="cellIs" dxfId="38" priority="17" operator="equal">
-      <formula>"Assert"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="18" operator="equal">
-      <formula>"When"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="19" operator="equal">
-      <formula>"Given a"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="20" operator="equal">
-      <formula>"Specification"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="34" priority="21" operator="beginsWith" text="With Properties">
-      <formula>LEFT(A1,LEN("With Properties"))="With Properties"</formula>
-    </cfRule>
-    <cfRule type="endsWith" dxfId="33" priority="22" operator="endsWith" text=" table of">
-      <formula>RIGHT(A1,LEN(" table of"))=" table of"</formula>
-    </cfRule>
-    <cfRule type="endsWith" dxfId="32" priority="23" operator="endsWith" text=" of">
-      <formula>RIGHT(A1,LEN(" of"))=" of"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="24">
-      <formula>AND((RIGHT(A1048576, 3) = " of"), A2 = "With Properties")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="25">
-      <formula>AND(RIGHT(XFD1, 3) = " of", A2 = "With Properties")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD4 A14:XFD1048576 E5:XFD13">
-    <cfRule type="notContainsBlanks" dxfId="29" priority="26">
-      <formula>LEN(TRIM(A1))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD4 A14:XFD1048576 E5:XFD13">
-    <cfRule type="cellIs" dxfId="28" priority="15" operator="equal">
-      <formula>"PercentagePrecision"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="16" operator="equal">
-      <formula>"="</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD4 A14:XFD1048576 E5:XFD13">
-    <cfRule type="cellIs" dxfId="26" priority="14" operator="equal">
-      <formula>"StringFormat"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:D13">
+  <conditionalFormatting sqref="A1:XFD1048576">
     <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
-      <formula>"Assert"</formula>
+      <formula>"Then"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
       <formula>"When"</formula>
@@ -854,27 +805,27 @@
       <formula>"Specification"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="8" priority="8" operator="beginsWith" text="With Properties">
-      <formula>LEFT(A5,LEN("With Properties"))="With Properties"</formula>
+      <formula>LEFT(A1,LEN("With Properties"))="With Properties"</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="7" priority="9" operator="endsWith" text=" table of">
-      <formula>RIGHT(A5,LEN(" table of"))=" table of"</formula>
+      <formula>RIGHT(A1,LEN(" table of"))=" table of"</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="6" priority="10" operator="endsWith" text=" of">
-      <formula>RIGHT(A5,LEN(" of"))=" of"</formula>
+      <formula>RIGHT(A1,LEN(" of"))=" of"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="5" priority="11">
-      <formula>AND((RIGHT(A4, 3) = " of"), A6 = "With Properties")</formula>
+      <formula>AND((RIGHT(A1048576, 3) = " of"), A2 = "With Properties")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="12">
-      <formula>AND(RIGHT(XFD5, 3) = " of", A6 = "With Properties")</formula>
+      <formula>AND(RIGHT(XFD1, 3) = " of", A2 = "With Properties")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:D13">
+  <conditionalFormatting sqref="A1:XFD1048576">
     <cfRule type="notContainsBlanks" dxfId="3" priority="13">
-      <formula>LEN(TRIM(A5))&gt;0</formula>
+      <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:D13">
+  <conditionalFormatting sqref="A1:XFD1048576">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"PercentagePrecision"</formula>
     </cfRule>
@@ -882,7 +833,7 @@
       <formula>"="</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:D13">
+  <conditionalFormatting sqref="A1:XFD1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"StringFormat"</formula>
     </cfRule>
